--- a/bots/crawl_ch/output/bread_coop_2023-02-11.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-02-11.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -1172,7 +1172,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -2312,7 +2312,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -2600,7 +2600,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -2742,7 +2742,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Blätterteig ausgewallt 2.40 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Blätterteig ausgewallt - Online kein Bestand 2.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -3322,7 +3322,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -3460,7 +3460,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -3525,7 +3525,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -3740,7 +3740,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -3882,7 +3882,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -4101,31 +4101,31 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6636392</t>
+          <t>3378512</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Prix Garantie Zwieback</t>
+          <t>Betty Bossi Naturaplan Bio Kuchenteig rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/prix-garantie-zwieback/p/6636392</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-naturaplan-bio-kuchenteig-rund-ausgewallt-32cm/p/3378512</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -4134,12 +4134,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.40/100g</t>
+          <t>0.78/100g</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4149,7 +4149,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4159,42 +4159,46 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Prix Garantie Zwieback 1.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
+          <t>Betty Bossi Naturaplan Bio Kuchenteig rund ausgewallt Ø32cm - Online kein Bestand 2.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3378512</t>
+          <t>6636392</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Kuchenteig rund ausgewallt Ø32cm</t>
+          <t>Prix Garantie Zwieback</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-naturaplan-bio-kuchenteig-rund-ausgewallt-32cm/p/3378512</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/prix-garantie-zwieback/p/6636392</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -4203,12 +4207,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0.78/100g</t>
+          <t>0.40/100g</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4218,7 +4222,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4228,60 +4232,56 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Kuchenteig rund ausgewallt Ø32cm 2.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Zwieback 1.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3952561</t>
+          <t>4522047</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Harry Korn an Korn</t>
+          <t>Betty Bossi Naturaplan Bio Pizzateig Rustico Ø28cm</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/harry-korn-an-korn/p/3952561</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/betty-bossi-naturaplan-bio-pizzateig-rustico-28cm/p/4522047</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E55" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Harry</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0.66/100g</t>
+          <t>1.26/100g</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4301,56 +4301,60 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Harry Korn an Korn 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr"/>
+          <t>Betty Bossi Naturaplan Bio Pizzateig Rustico Ø28cm 3.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>4522047</t>
+          <t>3952561</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Pizzateig Rustico Ø28cm</t>
+          <t>Harry Korn an Korn</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/betty-bossi-naturaplan-bio-pizzateig-rustico-28cm/p/4522047</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/harry-korn-an-korn/p/3952561</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E56" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Harry</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>1.26/100g</t>
+          <t>0.66/100g</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4360,7 +4364,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4370,22 +4374,18 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Pizzateig Rustico Ø28cm 3.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Harry Korn an Korn 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -4454,7 +4454,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -4592,7 +4592,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -4738,7 +4738,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -4811,7 +4811,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -4880,7 +4880,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -4953,7 +4953,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -5022,7 +5022,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -5095,7 +5095,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -5164,7 +5164,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -5233,7 +5233,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -5302,7 +5302,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -5375,7 +5375,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5517,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -5659,7 +5659,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -5732,7 +5732,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -5874,7 +5874,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -5947,7 +5947,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -6016,7 +6016,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -6085,7 +6085,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -6227,7 +6227,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -6296,7 +6296,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -6365,7 +6365,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -6434,7 +6434,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -6507,7 +6507,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6576,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -6722,7 +6722,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -6795,7 +6795,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -6937,7 +6937,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -7010,7 +7010,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -7079,7 +7079,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -7148,7 +7148,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -7217,7 +7217,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -7290,7 +7290,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -7359,7 +7359,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -7428,7 +7428,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -7497,7 +7497,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -7570,7 +7570,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -7639,7 +7639,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -7708,7 +7708,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -7781,45 +7781,45 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>3664904</t>
+          <t>3541890</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Appenzeller Bärli-Biber Mini</t>
+          <t>Betty Bossi Naturaplan Bio Pizzateig rund ausgewallt Ø28cm</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/appenzeller-baerli-biber-mini/p/3664904</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-naturaplan-bio-pizzateig-rund-ausgewallt-28cm/p/3541890</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E105" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Zweifel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2.04/100g</t>
+          <t>1.03/100g</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7829,7 +7829,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -7839,60 +7839,60 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Appenzeller Bärli-Biber Mini 4.65 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Pizzateig rund ausgewallt Ø28cm 3.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>['vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>3541890</t>
+          <t>5892883</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Pizzateig rund ausgewallt Ø28cm</t>
+          <t>Old El Paso Street Market Corn Tortillas glutenfrei 10 Stück</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-naturaplan-bio-pizzateig-rund-ausgewallt-28cm/p/3541890</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-street-market-corn-tortillas-glutenfrei-10-stueck/p/5892883</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E106" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>1.03/100g</t>
+          <t>2.38/100g</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -7912,60 +7912,60 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Pizzateig rund ausgewallt Ø28cm 3.40 Schweizer Franken</t>
+          <t>Old El Paso Street Market Corn Tortillas glutenfrei 10 Stück 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>5892883</t>
+          <t>3664904</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Old El Paso Street Market Corn Tortillas glutenfrei 10 Stück</t>
+          <t>Appenzeller Bärli-Biber Mini</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-street-market-corn-tortillas-glutenfrei-10-stueck/p/5892883</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/appenzeller-baerli-biber-mini/p/3664904</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="E107" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Zweifel</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2.38/100g</t>
+          <t>2.04/100g</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -7985,22 +7985,22 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>Old El Paso Street Market Corn Tortillas glutenfrei 10 Stück 4.95 Schweizer Franken</t>
+          <t>Appenzeller Bärli-Biber Mini 4.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegetarian']</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -8073,7 +8073,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -8146,7 +8146,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -8219,7 +8219,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -8288,7 +8288,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -8357,7 +8357,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -8426,7 +8426,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -8495,45 +8495,45 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>5791680</t>
+          <t>3726465</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Karma Mehrkornbrot mit Chia 250g</t>
+          <t>Pasquier Pancakes 10 Stück</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/karma-mehrkornbrot-mit-chia/p/5791680</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-10-stueck/p/3726465</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E115" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>1.52/100g</t>
+          <t>1.20/100g</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8543,7 +8543,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -8553,60 +8553,56 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>Karma Mehrkornbrot mit Chia 250g 3.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Pasquier Pancakes 10 Stück 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>3726465</t>
+          <t>4373135</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes 10 Stück</t>
+          <t>Prix Garantie Mini Chinois 6 Stück</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-10-stueck/p/3726465</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-mini-chinois-6-stueck/p/4373135</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E116" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>1.20/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8616,7 +8612,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -8631,37 +8627,37 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes 10 Stück 4.20 Schweizer Franken</t>
+          <t>Prix Garantie Mini Chinois 6 Stück 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>4373135</t>
+          <t>5791680</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Chinois 6 Stück</t>
+          <t>Karma Mehrkornbrot mit Chia 250g</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-mini-chinois-6-stueck/p/4373135</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/karma-mehrkornbrot-mit-chia/p/5791680</t>
         </is>
       </c>
       <c r="D117" t="n">
         <v>7</v>
       </c>
       <c r="E117" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -8670,12 +8666,12 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>1.52/100g</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8685,7 +8681,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -8695,18 +8691,22 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Chinois 6 Stück 2.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N117" t="inlineStr"/>
+          <t>Karma Mehrkornbrot mit Chia 250g 3.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -8779,7 +8779,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -8852,31 +8852,31 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>3041124</t>
+          <t>6825720</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Sonnenblumenbrot</t>
+          <t>Prix Garantie Roggenvollkornbrot</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/naturaplan-bio-sonnenblumenbrot/p/3041124</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/prix-garantie-roggenvollkornbrot/p/6825720</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="E120" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -8885,12 +8885,12 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>0.64/100g</t>
+          <t>0.36/100g</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8900,7 +8900,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -8915,41 +8915,37 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Sonnenblumenbrot 3.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Roggenvollkornbrot 1.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>6825720</t>
+          <t>6628846</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Prix Garantie Roggenvollkornbrot</t>
+          <t>Zitronencake</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/prix-garantie-roggenvollkornbrot/p/6825720</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/zitronencake/p/6628846</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E121" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -8958,12 +8954,12 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>0.36/100g</t>
+          <t>0.95/100g</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -8973,7 +8969,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -8983,56 +8979,56 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>Prix Garantie Roggenvollkornbrot 1.80 Schweizer Franken</t>
+          <t>Zitronencake 6.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>6628846</t>
+          <t>6141017</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Zitronencake</t>
+          <t>Bonne Maman Madeleine au Citron 7 Stück</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/zitronencake/p/6628846</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-au-citron-7-stueck/p/6141017</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>0.95/100g</t>
+          <t>2.26/100g</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -9042,7 +9038,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -9057,51 +9053,51 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>Zitronencake 6.20 Schweizer Franken</t>
+          <t>Bonne Maman Madeleine au Citron 7 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>6141017</t>
+          <t>4960272</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine au Citron 7 Stück</t>
+          <t>Roland Guezli Petite Pause Milch Céréales</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-au-citron-7-stueck/p/6141017</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-guezli-petite-pause-milch-cereales/p/4960272</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E123" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2.26/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9111,7 +9107,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -9121,56 +9117,56 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine au Citron 7 Stück 3.95 Schweizer Franken</t>
+          <t>Roland Guezli Petite Pause Milch Céréales 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>4960272</t>
+          <t>3041124</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Roland Guezli Petite Pause Milch Céréales</t>
+          <t>Naturaplan Bio Sonnenblumenbrot</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-guezli-petite-pause-milch-cereales/p/4960272</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/naturaplan-bio-sonnenblumenbrot/p/3041124</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E124" t="n">
         <v>4.5</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>0.64/100g</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9180,7 +9176,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -9190,18 +9186,22 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>Roland Guezli Petite Pause Milch Céréales 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N124" t="inlineStr"/>
+          <t>Naturaplan Bio Sonnenblumenbrot 3.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -9270,7 +9270,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -9343,7 +9343,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -9416,7 +9416,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -9485,7 +9485,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -9558,7 +9558,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -9627,7 +9627,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -9700,7 +9700,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -9842,7 +9842,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -9911,7 +9911,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -9984,7 +9984,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -10053,7 +10053,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -10126,7 +10126,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -10199,45 +10199,45 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>3410121</t>
+          <t>6617154</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Kirsprolls Vollkorn-Schwedenbrötchen</t>
+          <t>Prix Garantie Roggen Knäckebrot</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/kirsprolls-vollkorn-schwedenbroetchen/p/3410121</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/prix-garantie-roggen-knaeckebrot/p/6617154</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E139" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Krisprolls</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>1.31/100g</t>
+          <t>0.38/100g</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -10247,7 +10247,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -10262,55 +10262,55 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>Kirsprolls Vollkorn-Schwedenbrötchen 2.95 Schweizer Franken</t>
+          <t>Prix Garantie Roggen Knäckebrot 0.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>6617154</t>
+          <t>3410121</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Prix Garantie Roggen Knäckebrot</t>
+          <t>Kirsprolls Vollkorn-Schwedenbrötchen</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/prix-garantie-roggen-knaeckebrot/p/6617154</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/kirsprolls-vollkorn-schwedenbroetchen/p/3410121</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E140" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Krisprolls</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>0.38/100g</t>
+          <t>1.31/100g</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -10320,7 +10320,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -10335,17 +10335,17 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>Prix Garantie Roggen Knäckebrot 0.95 Schweizer Franken</t>
+          <t>Kirsprolls Vollkorn-Schwedenbrötchen 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -10418,7 +10418,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -10491,7 +10491,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -10560,7 +10560,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -10629,7 +10629,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -10698,7 +10698,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -10767,7 +10767,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -10836,7 +10836,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -10909,7 +10909,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -10982,7 +10982,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -11055,45 +11055,45 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>3734986</t>
+          <t>3584194</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Mulino Bianco 5-Kornbrot mit Soja</t>
+          <t>Fine Food Zuger Kirschtorte</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/mulino-bianco-5-kornbrot-mit-soja/p/3734986</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/fine-food-zuger-kirschtorte/p/3584194</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="E151" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Mulino Bianco</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>0.60/100g</t>
+          <t>4.83/100g</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -11103,7 +11103,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -11113,56 +11113,60 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>Mulino Bianco 5-Kornbrot mit Soja 2.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N151" t="inlineStr"/>
+          <t>Fine Food Zuger Kirschtorte 14.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>3584194</t>
+          <t>3734986</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Fine Food Zuger Kirschtorte</t>
+          <t>Mulino Bianco 5-Kornbrot mit Soja</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/fine-food-zuger-kirschtorte/p/3584194</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/mulino-bianco-5-kornbrot-mit-soja/p/3734986</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E152" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Mulino Bianco</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>4.83/100g</t>
+          <t>0.60/100g</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -11172,7 +11176,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -11182,22 +11186,18 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>Fine Food Zuger Kirschtorte 14.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N152" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Mulino Bianco 5-Kornbrot mit Soja 2.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -11266,7 +11266,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -11339,7 +11339,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -11412,7 +11412,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -11481,7 +11481,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -11554,7 +11554,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -11623,7 +11623,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -11692,7 +11692,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -11761,7 +11761,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -11830,7 +11830,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -11899,7 +11899,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -11972,7 +11972,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -12045,7 +12045,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -12118,7 +12118,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -12191,45 +12191,45 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>6797332</t>
+          <t>4144505</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>DUNKIN' DONUTS Strawberry 2 Stück</t>
+          <t>Pandorino</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/dunkin-donuts-strawberry-2-stueck/p/6797332</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pandorino/p/4144505</t>
         </is>
       </c>
       <c r="D167" t="n">
         <v>13</v>
       </c>
       <c r="E167" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>DUNKIN' DONUTS</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>3.15/100g</t>
+          <t>1.78/100g</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -12239,7 +12239,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -12249,56 +12249,56 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>DUNKIN' DONUTS Strawberry 2 Stück 4.60 Schweizer Franken</t>
+          <t>Pandorino 1.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>4144505</t>
+          <t>6797332</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Pandorino</t>
+          <t>DUNKIN' DONUTS Strawberry 2 Stück</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pandorino/p/4144505</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/dunkin-donuts-strawberry-2-stueck/p/6797332</t>
         </is>
       </c>
       <c r="D168" t="n">
         <v>13</v>
       </c>
       <c r="E168" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DUNKIN' DONUTS</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>1.78/100g</t>
+          <t>3.15/100g</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -12308,7 +12308,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -12318,18 +12318,18 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>Pandorino 1.60 Schweizer Franken</t>
+          <t>DUNKIN' DONUTS Strawberry 2 Stück 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -12398,7 +12398,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -12467,7 +12467,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -12536,7 +12536,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -12605,7 +12605,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -12674,7 +12674,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -12743,7 +12743,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -12816,7 +12816,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -12885,7 +12885,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -12958,45 +12958,45 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>3726500</t>
+          <t>6767586</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 8St</t>
+          <t>Milka Choco Brownie</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-8st/p/3726500</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/milka-choco-brownie/p/6767586</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E178" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Milka</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>1.28/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -13006,7 +13006,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -13016,18 +13016,18 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 8St 4.60 Schweizer Franken</t>
+          <t>Milka Choco Brownie 3.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -13096,45 +13096,45 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>6668455</t>
+          <t>3726500</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig -35% Fett</t>
+          <t>Pasquier Schokobrötchen 8St</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-kuchenteig-35-fett/p/6668455</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-8st/p/3726500</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E180" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>0.78/100g</t>
+          <t>1.28/100g</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -13154,60 +13154,56 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig -35% Fett 2.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N180" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Pasquier Schokobrötchen 8St 4.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>6750015</t>
+          <t>6668455</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Schär Pain Brioché</t>
+          <t>Betty Bossi Kuchenteig -35% Fett</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-pain-brioche/p/6750015</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-kuchenteig-35-fett/p/6668455</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E181" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>0.78/100g</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -13217,7 +13213,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -13227,60 +13223,60 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>Schär Pain Brioché 5.20 Schweizer Franken</t>
+          <t>Betty Bossi Kuchenteig -35% Fett 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>6767586</t>
+          <t>6750015</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Milka Choco Brownie</t>
+          <t>Schär Pain Brioché</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/milka-choco-brownie/p/6767586</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-pain-brioche/p/6750015</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E182" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Milka</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13290,7 +13286,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -13300,18 +13296,22 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>Milka Choco Brownie 3.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N182" t="inlineStr"/>
+          <t>Schär Pain Brioché 5.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -13382,7 +13382,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -13451,7 +13451,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -13520,7 +13520,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -13593,7 +13593,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -13666,7 +13666,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -13735,7 +13735,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -13808,7 +13808,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -13877,7 +13877,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -13950,7 +13950,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -14019,7 +14019,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -14092,7 +14092,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -14161,7 +14161,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -14230,7 +14230,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -14303,7 +14303,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -14372,7 +14372,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -14445,7 +14445,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -14514,7 +14514,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -14587,7 +14587,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -14660,7 +14660,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -14729,7 +14729,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -14802,7 +14802,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -14871,7 +14871,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -14938,7 +14938,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -15011,7 +15011,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -15084,7 +15084,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -15153,7 +15153,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -15222,7 +15222,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -15291,7 +15291,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -15360,7 +15360,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -15429,7 +15429,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -15502,7 +15502,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -15575,7 +15575,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -15644,7 +15644,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -15713,7 +15713,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -15782,7 +15782,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -15855,7 +15855,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -15928,45 +15928,45 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>6786544</t>
+          <t>5722124</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Mulino Bianco Nascondini</t>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mulino-bianco-nascondini/p/6786544</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E220" t="n">
         <v>3.5</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Mulino Bianco</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>1.06/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -15986,56 +15986,60 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>Mulino Bianco Nascondini 3.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N220" t="inlineStr"/>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 20% ab 2 Aktion 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>['chilled', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>5722124</t>
+          <t>6786544</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
+          <t>Mulino Bianco Nascondini</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mulino-bianco-nascondini/p/6786544</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E221" t="n">
         <v>3.5</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Mulino Bianco</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>1.06/100g</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -16045,7 +16049,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -16055,46 +16059,42 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 20% ab 2 Aktion 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N221" t="inlineStr">
-        <is>
-          <t>['chilled', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Mulino Bianco Nascondini 3.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>5661142</t>
+          <t>6989304</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa</t>
+          <t>JaMaDu Jungle Cracker Randen</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-crunch-it-cracker-dinkel-quinoa/p/5661142</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/jamadu-jungle-cracker-randen/p/6989304</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E222" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -16103,12 +16103,12 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>2.68/100g</t>
+          <t>2.46/100g</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -16118,7 +16118,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -16128,46 +16128,42 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N222" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>JaMaDu Jungle Cracker Randen 3.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>6989304</t>
+          <t>5661142</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>JaMaDu Jungle Cracker Randen</t>
+          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/jamadu-jungle-cracker-randen/p/6989304</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-crunch-it-cracker-dinkel-quinoa/p/5661142</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E223" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -16176,12 +16172,12 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>2.46/100g</t>
+          <t>2.68/100g</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -16191,7 +16187,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -16201,18 +16197,22 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>JaMaDu Jungle Cracker Randen 3.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N223" t="inlineStr"/>
+          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -16285,7 +16285,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -16352,7 +16352,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -16421,7 +16421,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -16494,7 +16494,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -16563,7 +16563,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -16636,45 +16636,45 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>6315330</t>
+          <t>6313770</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla Bowls Seasalt</t>
+          <t>Roland Petite Pause Milch Céréales</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-bowls-seasalt/p/6315330</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-milch-cereales/p/6313770</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E230" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>2.43/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -16684,7 +16684,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -16694,60 +16694,56 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
         </is>
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla Bowls Seasalt 3.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N230" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Roland Petite Pause Milch Céréales 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>6313770</t>
+          <t>6315330</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Milch Céréales</t>
+          <t>Old El Paso Tortilla Bowls Seasalt</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-milch-cereales/p/6313770</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-bowls-seasalt/p/6315330</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E231" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>2.43/100g</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -16757,7 +16753,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -16767,18 +16763,22 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Milch Céréales 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N231" t="inlineStr"/>
+          <t>Old El Paso Tortilla Bowls Seasalt 3.65 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N231" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -16851,7 +16851,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -16920,7 +16920,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -16993,7 +16993,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -17060,7 +17060,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -17133,7 +17133,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -17202,45 +17202,45 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>5777498</t>
+          <t>4265298</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Old el Paso Soft Taco Shells Mini</t>
+          <t>Naturaplan Bio Mini Haselnussrollen</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-taco-shells-mini/p/5777498</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-mini-haselnussrollen/p/4265298</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E238" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>4.10/100g</t>
+          <t>1.50/100g</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -17250,7 +17250,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -17260,56 +17260,56 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>Old el Paso Soft Taco Shells Mini 5.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Mini Haselnussrollen 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>4265298</t>
+          <t>5777498</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mini Haselnussrollen</t>
+          <t>Old el Paso Soft Taco Shells Mini</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-mini-haselnussrollen/p/4265298</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-taco-shells-mini/p/5777498</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E239" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>1.50/100g</t>
+          <t>4.10/100g</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17319,7 +17319,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -17329,18 +17329,18 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mini Haselnussrollen 3.60 Schweizer Franken</t>
+          <t>Old el Paso Soft Taco Shells Mini 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -17413,7 +17413,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -17482,7 +17482,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -17549,7 +17549,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -17618,7 +17618,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -17687,7 +17687,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -17756,7 +17756,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -17825,7 +17825,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -17894,7 +17894,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -17963,7 +17963,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -18036,7 +18036,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -18105,7 +18105,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -18174,7 +18174,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -18241,45 +18241,45 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>6776778</t>
+          <t>6581130</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Werners Markt Magenbrot</t>
+          <t>Dona Pita Brot</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/werners-markt-magenbrot/p/6776778</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/dona-pita-brot/p/6581130</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E253" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Werner's</t>
+          <t>Dona</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>0.57/100g</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -18289,7 +18289,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -18299,56 +18299,56 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>Werners Markt Magenbrot 4.70 Schweizer Franken</t>
+          <t>Dona Pita Brot 2.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>6581130</t>
+          <t>5732888</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Dona Pita Brot</t>
+          <t>Schär Panini Rolls glutenfrei 3x75g</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/dona-pita-brot/p/6581130</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-panini-rolls-glutenfrei-3x75g/p/5732888</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E254" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Dona</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>0.57/100g</t>
+          <t>1.82/100g</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18358,7 +18358,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -18368,56 +18368,60 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>Dona Pita Brot 2.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N254" t="inlineStr"/>
+          <t>Schär Panini Rolls glutenfrei 3x75g 4.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>5732888</t>
+          <t>6776778</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Schär Panini Rolls glutenfrei 3x75g</t>
+          <t>Werners Markt Magenbrot</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-panini-rolls-glutenfrei-3x75g/p/5732888</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/werners-markt-magenbrot/p/6776778</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E255" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Werner's</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>1.82/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -18427,7 +18431,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -18437,22 +18441,18 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote']</t>
         </is>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>Schär Panini Rolls glutenfrei 3x75g 4.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N255" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Werners Markt Magenbrot 4.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -18521,7 +18521,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -18590,7 +18590,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -18661,7 +18661,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -18730,45 +18730,45 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>6729406</t>
+          <t>6345853</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Roland Sport Banana Cranberry</t>
+          <t>Indian Delight Pappadums</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/roland-sport-banana-cranberry/p/6729406</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-pappadums/p/6345853</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E260" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>3.56/100g</t>
+          <t>3.60/100g</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -18778,7 +18778,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -18788,56 +18788,56 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>Roland Sport Banana Cranberry 4.80 Schweizer Franken</t>
+          <t>Indian Delight Pappadums 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>5653528</t>
+          <t>6729406</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Betty Bossi Tortenboden hell</t>
+          <t>Roland Sport Banana Cranberry</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-tortenboden-hell/p/5653528</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/roland-sport-banana-cranberry/p/6729406</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E261" t="n">
         <v>5</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>1.16/100g</t>
+          <t>3.56/100g</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -18847,7 +18847,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -18857,60 +18857,56 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>Betty Bossi Tortenboden hell 3.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N261" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Roland Sport Banana Cranberry 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>6345853</t>
+          <t>5653528</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Indian Delight Pappadums</t>
+          <t>Betty Bossi Tortenboden hell</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-pappadums/p/6345853</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-tortenboden-hell/p/5653528</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E262" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>3.60/100g</t>
+          <t>1.16/100g</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -18920,7 +18916,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -18930,18 +18926,22 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>Indian Delight Pappadums 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N262" t="inlineStr"/>
+          <t>Betty Bossi Tortenboden hell 3.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -19014,7 +19014,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -19083,7 +19083,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -19156,7 +19156,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -19225,7 +19225,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -19298,7 +19298,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -19367,7 +19367,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -19438,7 +19438,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -19507,7 +19507,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -19576,7 +19576,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -19645,7 +19645,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -19718,7 +19718,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -19791,7 +19791,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -19860,7 +19860,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -19929,7 +19929,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -19998,7 +19998,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -20065,7 +20065,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -20134,7 +20134,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -20201,7 +20201,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -20270,7 +20270,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -20343,7 +20343,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -20410,7 +20410,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -20479,45 +20479,45 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>6869975</t>
+          <t>5803198</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Roland Knäckers Nature</t>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-nature/p/6869975</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E285" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>2.32/100g</t>
+          <t>1.87/100g</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20527,7 +20527,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -20537,56 +20537,60 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>Roland Knäckers Nature 3.25 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N285" t="inlineStr"/>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N285" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>5803198</t>
+          <t>6579811</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
+          <t>Ines Rosales Süsse Tortas</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
         </is>
       </c>
       <c r="D286" t="n">
         <v>6</v>
       </c>
       <c r="E286" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>INES ROSALES</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>1.87/100g</t>
+          <t>2.56/100g</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20596,7 +20600,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -20611,55 +20615,51 @@
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N286" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>6579811</t>
+          <t>6869975</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas</t>
+          <t>Roland Knäckers Nature</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-nature/p/6869975</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>INES ROSALES</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>2.56/100g</t>
+          <t>2.32/100g</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -20669,7 +20669,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -20679,18 +20679,18 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
+          <t>Roland Knäckers Nature 3.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -20757,24 +20757,24 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>6635317</t>
+          <t>6857773</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Prix Garantie Kakao Roulade</t>
+          <t>Dar-Vida Choco au lait</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-kakao-roulade/p/6635317</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-choco-au-lait/p/6857773</t>
         </is>
       </c>
       <c r="D289" t="n">
@@ -20785,17 +20785,17 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>3.80/100g</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -20805,7 +20805,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -20815,35 +20815,35 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>Prix Garantie Kakao Roulade 2.60 Schweizer Franken</t>
+          <t>Dar-Vida Choco au lait 1.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>6857773</t>
+          <t>6635317</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Dar-Vida Choco au lait</t>
+          <t>Prix Garantie Kakao Roulade</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-choco-au-lait/p/6857773</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-kakao-roulade/p/6635317</t>
         </is>
       </c>
       <c r="D290" t="n">
@@ -20854,17 +20854,17 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>3.80/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -20874,7 +20874,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -20884,56 +20884,56 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>Dar-Vida Choco au lait 1.75 Schweizer Franken</t>
+          <t>Prix Garantie Kakao Roulade 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>6609039</t>
+          <t>6967944</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan</t>
+          <t>St. Michel Galettes Mou Choco Blanc</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-galettes-mou-choco-blanc/p/6967944</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E291" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Vergani</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -20943,7 +20943,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -20953,60 +20953,56 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N291" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>St. Michel Galettes Mou Choco Blanc 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>6338743</t>
+          <t>6609039</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Country Cracker Honig</t>
+          <t>Vergani Panettone vegan</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-honig/p/6338743</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
         </is>
       </c>
       <c r="D292" t="n">
         <v>3</v>
       </c>
       <c r="E292" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Vergani</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21016,7 +21012,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -21026,56 +21022,60 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>Country Cracker Honig 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N292" t="inlineStr"/>
+          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>6967944</t>
+          <t>6338743</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>St. Michel Galettes Mou Choco Blanc</t>
+          <t>Country Cracker Honig</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-galettes-mou-choco-blanc/p/6967944</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-honig/p/6338743</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E293" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21085,7 +21085,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -21095,18 +21095,18 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>St. Michel Galettes Mou Choco Blanc 2.95 Schweizer Franken</t>
+          <t>Country Cracker Honig 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -21175,7 +21175,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -21248,7 +21248,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -21319,7 +21319,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -21388,7 +21388,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -21457,7 +21457,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -21526,7 +21526,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -21595,7 +21595,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -21668,45 +21668,45 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>6603471</t>
+          <t>6558121</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
+          <t>Country Cracker Dinkel</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E302" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>1.75/100g</t>
+          <t>1.73/100g</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -21716,7 +21716,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -21726,56 +21726,56 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
+          <t>Country Cracker Dinkel 20% ab 2 Aktion 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>6558121</t>
+          <t>6603471</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E303" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>1.73/100g</t>
+          <t>1.75/100g</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -21785,7 +21785,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -21795,56 +21795,56 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel 20% ab 2 Aktion 3.95 Schweizer Franken</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>6828661</t>
+          <t>6775942</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Birnenweggli</t>
+          <t>Mezeast Chicken Shawarma Wrap Kit</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/birnenweggli/p/6828661</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E304" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -21854,7 +21854,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -21864,56 +21864,56 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>Birnenweggli 4.95 Schweizer Franken</t>
+          <t>Mezeast Chicken Shawarma Wrap Kit 20% ab 2 Aktion 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>6775942</t>
+          <t>6828661</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit</t>
+          <t>Birnenweggli</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/birnenweggli/p/6828661</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E305" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -21923,7 +21923,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -21933,18 +21933,18 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit 20% ab 2 Aktion 6.95 Schweizer Franken</t>
+          <t>Birnenweggli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -22017,7 +22017,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -22086,7 +22086,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -22155,7 +22155,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -22224,7 +22224,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -22297,45 +22297,45 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>6575281</t>
+          <t>5803251</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit Gluten Free</t>
+          <t>Schär Pausa Ciok Snack glutenfrei</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit-gluten-free/p/6575281</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-pausa-ciok-snack-glutenfrei/p/5803251</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E311" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>1.67/100g</t>
+          <t>1.99/100g</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -22345,7 +22345,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -22355,12 +22355,12 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit Gluten Free 7.70 Schweizer Franken</t>
+          <t>Schär Pausa Ciok Snack glutenfrei 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N311" t="inlineStr">
@@ -22370,45 +22370,45 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>5803251</t>
+          <t>6575281</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Schär Pausa Ciok Snack glutenfrei</t>
+          <t>Old El Paso Fajita Kit Gluten Free</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-pausa-ciok-snack-glutenfrei/p/5803251</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit-gluten-free/p/6575281</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E312" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>1.99/100g</t>
+          <t>1.67/100g</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -22418,7 +22418,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -22428,12 +22428,12 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>Schär Pausa Ciok Snack glutenfrei 6.95 Schweizer Franken</t>
+          <t>Old El Paso Fajita Kit Gluten Free 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N312" t="inlineStr">
@@ -22443,7 +22443,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -22512,7 +22512,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -22581,7 +22581,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -22654,45 +22654,45 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>6151960</t>
+          <t>6284830</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
+          <t>Leisi Kuchenteig eckig ausgewallt</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
         </is>
       </c>
       <c r="D316" t="n">
         <v>1</v>
       </c>
       <c r="E316" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>2.16/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -22702,7 +22702,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -22712,56 +22712,60 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N316" t="inlineStr"/>
+          <t>Leisi Kuchenteig eckig ausgewallt 20% ab 2 Aktion 5.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>6284830</t>
+          <t>6151960</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt</t>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
         </is>
       </c>
       <c r="D317" t="n">
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>2.16/100g</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -22771,7 +22775,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -22781,22 +22785,18 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt 20% ab 2 Aktion 5.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N317" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -22865,7 +22865,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -22932,7 +22932,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -23005,7 +23005,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -23072,7 +23072,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -23141,7 +23141,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -23210,7 +23210,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -23279,7 +23279,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -23348,7 +23348,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -23417,7 +23417,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -23486,7 +23486,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -23553,7 +23553,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -23626,7 +23626,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
@@ -23699,7 +23699,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-02-11 12:55:21</t>
+          <t>2023-02-11 20:49:49</t>
         </is>
       </c>
     </row>
